--- a/Code/Results/Cases/Case_1_124/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_124/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.277865080618613</v>
+        <v>7.777315673816282</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.258037183940904</v>
+        <v>3.014987419875711</v>
       </c>
       <c r="E2">
-        <v>44.59383886850551</v>
+        <v>24.79174213415143</v>
       </c>
       <c r="F2">
-        <v>30.98428427533635</v>
+        <v>19.4802831355137</v>
       </c>
       <c r="G2">
-        <v>48.01435241924035</v>
+        <v>23.44602904748765</v>
       </c>
       <c r="H2">
-        <v>11.75897338681702</v>
+        <v>11.19472305127429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>73.51025891976496</v>
+        <v>41.70069791426189</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.908706163363809</v>
+        <v>7.704587222163366</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.835522459213232</v>
+        <v>2.922400963657579</v>
       </c>
       <c r="E3">
-        <v>40.97820898501406</v>
+        <v>23.41756359132795</v>
       </c>
       <c r="F3">
-        <v>27.81995888076548</v>
+        <v>19.26235927293049</v>
       </c>
       <c r="G3">
-        <v>42.89300162882819</v>
+        <v>22.68261639027289</v>
       </c>
       <c r="H3">
-        <v>10.4993572501725</v>
+        <v>11.28055079420221</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>67.78381286528752</v>
+        <v>39.19863302170486</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.677514934866502</v>
+        <v>7.66143945997142</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.58617409448391</v>
+        <v>2.86348191332191</v>
       </c>
       <c r="E4">
-        <v>38.73107777495073</v>
+        <v>22.53752749670013</v>
       </c>
       <c r="F4">
-        <v>25.9034331605155</v>
+        <v>19.15247696827177</v>
       </c>
       <c r="G4">
-        <v>39.80295593189616</v>
+        <v>22.2443913885128</v>
       </c>
       <c r="H4">
-        <v>9.741982598501696</v>
+        <v>11.34274728644962</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>64.19380673093674</v>
+        <v>37.57545245196752</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.582216197197114</v>
+        <v>7.644254268980068</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.486282473968823</v>
+        <v>2.838948601769874</v>
       </c>
       <c r="E5">
-        <v>37.80425885404955</v>
+        <v>22.17016049896304</v>
       </c>
       <c r="F5">
-        <v>25.12533829704784</v>
+        <v>19.11368910538449</v>
       </c>
       <c r="G5">
-        <v>38.5510037155347</v>
+        <v>22.07393207464346</v>
       </c>
       <c r="H5">
-        <v>9.435833763952346</v>
+        <v>11.37041752415979</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>62.70679759384848</v>
+        <v>36.8922928694506</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.5663285134664</v>
+        <v>7.641425244824957</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.469779485671557</v>
+        <v>2.834843187600237</v>
       </c>
       <c r="E6">
-        <v>37.64958745003437</v>
+        <v>22.10864393996882</v>
       </c>
       <c r="F6">
-        <v>24.99622353590176</v>
+        <v>19.1076088383987</v>
       </c>
       <c r="G6">
-        <v>38.34340442585597</v>
+        <v>22.04613008023763</v>
       </c>
       <c r="H6">
-        <v>9.385112234476184</v>
+        <v>11.37515068608002</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>62.45829401001601</v>
+        <v>36.77754963350671</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.676234006424345</v>
+        <v>7.661206059281472</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.584820882229577</v>
+        <v>2.863153170619747</v>
       </c>
       <c r="E7">
-        <v>38.71862811180019</v>
+        <v>22.53260790701708</v>
       </c>
       <c r="F7">
-        <v>25.89293185553429</v>
+        <v>19.15192966475593</v>
       </c>
       <c r="G7">
-        <v>39.78604936053571</v>
+        <v>22.24205907525466</v>
       </c>
       <c r="H7">
-        <v>9.737845381377015</v>
+        <v>11.34311112866277</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>64.17385601270692</v>
+        <v>37.56632674596789</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.151537219775491</v>
+        <v>7.751937400829574</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.109697281388207</v>
+        <v>2.983491615962308</v>
       </c>
       <c r="E8">
-        <v>43.34981022405254</v>
+        <v>24.32566026181651</v>
       </c>
       <c r="F8">
-        <v>29.88510819837902</v>
+        <v>19.40017168395404</v>
       </c>
       <c r="G8">
-        <v>46.23265212451065</v>
+        <v>23.17675304581721</v>
       </c>
       <c r="H8">
-        <v>11.32022678758243</v>
+        <v>11.22230695496894</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>71.54734640395665</v>
+        <v>40.85609745338637</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.047903824364685</v>
+        <v>7.94097164859457</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.273571117392343</v>
+        <v>3.203193058163686</v>
       </c>
       <c r="E9">
-        <v>52.50905416643302</v>
+        <v>27.54090789973296</v>
       </c>
       <c r="F9">
-        <v>38.18294356273591</v>
+        <v>20.07637466502008</v>
       </c>
       <c r="G9">
-        <v>59.75397891948541</v>
+        <v>25.23037646582564</v>
       </c>
       <c r="H9">
-        <v>14.66003670848609</v>
+        <v>11.06359295284519</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>85.78471432203855</v>
+        <v>46.61364606264339</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.786313923981053</v>
+        <v>8.085451329462391</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.348213704569193</v>
+        <v>3.354924191119205</v>
       </c>
       <c r="E10">
-        <v>60.04481683714972</v>
+        <v>29.90284592238014</v>
       </c>
       <c r="F10">
-        <v>45.22722873833286</v>
+        <v>20.68599608206198</v>
       </c>
       <c r="G10">
-        <v>71.36313110004477</v>
+        <v>26.84416751075701</v>
       </c>
       <c r="H10">
-        <v>17.54020051279892</v>
+        <v>10.99843756063836</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>97.02779149762311</v>
+        <v>50.41810888943049</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.141185488395092</v>
+        <v>8.152137514425347</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.963052202781739</v>
+        <v>3.421909218974017</v>
       </c>
       <c r="E11">
-        <v>64.09787246043912</v>
+        <v>30.95042488299778</v>
       </c>
       <c r="F11">
-        <v>49.0124302358895</v>
+        <v>20.98672400805461</v>
       </c>
       <c r="G11">
-        <v>77.65382606521311</v>
+        <v>27.5950144144461</v>
       </c>
       <c r="H11">
-        <v>19.10385717883766</v>
+        <v>10.98075104685631</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>102.8386173160682</v>
+        <v>52.0564801407947</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.276615097242194</v>
+        <v>8.177506464247273</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.232350991528196</v>
+        <v>3.446986979336879</v>
       </c>
       <c r="E12">
-        <v>65.83141713661556</v>
+        <v>31.33843134555673</v>
       </c>
       <c r="F12">
-        <v>50.61622276208201</v>
+        <v>21.10384663933233</v>
       </c>
       <c r="G12">
-        <v>80.33113436897304</v>
+        <v>27.88127336141023</v>
       </c>
       <c r="H12">
-        <v>19.76982504098418</v>
+        <v>10.97583377974828</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>105.2634838429061</v>
+        <v>52.66364430201877</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.247348612300051</v>
+        <v>8.172037981163433</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.172128141847629</v>
+        <v>3.441598759264276</v>
       </c>
       <c r="E13">
-        <v>65.44559457819908</v>
+        <v>31.25525269206108</v>
       </c>
       <c r="F13">
-        <v>50.26040445652144</v>
+        <v>21.07848004805681</v>
       </c>
       <c r="G13">
-        <v>79.73650723100836</v>
+        <v>27.81954374781593</v>
       </c>
       <c r="H13">
-        <v>19.62189213883146</v>
+        <v>10.97681267606175</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>104.7271654165895</v>
+        <v>52.5334694828127</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.152288807863378</v>
+        <v>8.154222426954231</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.984276504995791</v>
+        <v>3.423978123067148</v>
       </c>
       <c r="E14">
-        <v>64.23530452206666</v>
+        <v>30.98252020248475</v>
       </c>
       <c r="F14">
-        <v>49.14001784227342</v>
+        <v>20.99629551132408</v>
       </c>
       <c r="G14">
-        <v>77.86654779509246</v>
+        <v>27.61852903615821</v>
       </c>
       <c r="H14">
-        <v>19.15676109681844</v>
+        <v>10.98031047977657</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>103.0322539654809</v>
+        <v>52.10669729938974</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.094283018433186</v>
+        <v>8.143324386557877</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.87492355335724</v>
+        <v>3.413147624285463</v>
       </c>
       <c r="E15">
-        <v>63.52562769362531</v>
+        <v>30.81433390120043</v>
       </c>
       <c r="F15">
-        <v>48.48047285290598</v>
+        <v>20.94637359736232</v>
       </c>
       <c r="G15">
-        <v>76.76740519493113</v>
+        <v>27.49563949602645</v>
       </c>
       <c r="H15">
-        <v>18.88342286849204</v>
+        <v>10.98268660098242</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>102.0298356349106</v>
+        <v>51.84356219988351</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.763139781736369</v>
+        <v>8.081110703749912</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.311682347108424</v>
+        <v>3.350505972393562</v>
       </c>
       <c r="E16">
-        <v>59.79905381575431</v>
+        <v>29.83316505286407</v>
       </c>
       <c r="F16">
-        <v>44.99684281811516</v>
+        <v>20.66680373636874</v>
       </c>
       <c r="G16">
-        <v>70.98147682997526</v>
+        <v>26.79539300850409</v>
       </c>
       <c r="H16">
-        <v>17.44539109674321</v>
+        <v>10.99983924927692</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>96.66957742481242</v>
+        <v>50.30918157756575</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.559625763440376</v>
+        <v>8.043175294606057</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.006080865293831</v>
+        <v>3.311558791719621</v>
       </c>
       <c r="E17">
-        <v>57.71763669719863</v>
+        <v>29.21571087519437</v>
       </c>
       <c r="F17">
-        <v>43.04500691805056</v>
+        <v>20.5012102529973</v>
       </c>
       <c r="G17">
-        <v>67.75355415864682</v>
+        <v>26.36974903867352</v>
       </c>
       <c r="H17">
-        <v>16.64381748604279</v>
+        <v>11.01346778993654</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>93.6112111798043</v>
+        <v>49.34425807527551</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.442033840960992</v>
+        <v>8.021447679120367</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.840624763904636</v>
+        <v>3.288965226064426</v>
       </c>
       <c r="E18">
-        <v>56.57014206178547</v>
+        <v>28.85483900868545</v>
       </c>
       <c r="F18">
-        <v>41.96973544720674</v>
+        <v>20.40817708398349</v>
       </c>
       <c r="G18">
-        <v>65.97939402701924</v>
+        <v>26.12653063886269</v>
       </c>
       <c r="H18">
-        <v>16.20349329095934</v>
+        <v>11.02242811239303</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>91.90722831286219</v>
+        <v>48.78056955745669</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.402100311758705</v>
+        <v>8.014107523198639</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.786091898274417</v>
+        <v>3.281282278316808</v>
       </c>
       <c r="E19">
-        <v>56.1885062965718</v>
+        <v>28.73166846064191</v>
       </c>
       <c r="F19">
-        <v>41.61244503378975</v>
+        <v>20.37706099311504</v>
       </c>
       <c r="G19">
-        <v>65.39051460092813</v>
+        <v>26.04447105418467</v>
       </c>
       <c r="H19">
-        <v>16.05738219491577</v>
+        <v>11.02565263721224</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>91.33784054773948</v>
+        <v>48.58822144923828</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.581338763344196</v>
+        <v>8.04720423898768</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.037471387865131</v>
+        <v>3.315724639745134</v>
       </c>
       <c r="E20">
-        <v>57.93363891119255</v>
+        <v>29.28203241347554</v>
       </c>
       <c r="F20">
-        <v>43.24752987973134</v>
+        <v>20.51860988256229</v>
       </c>
       <c r="G20">
-        <v>68.08803420715063</v>
+        <v>26.41489745084169</v>
       </c>
       <c r="H20">
-        <v>16.72685139218214</v>
+        <v>11.01190047963011</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>93.93058157100535</v>
+        <v>49.44787512055382</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.180157327826011</v>
+        <v>8.159452304100355</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.038185008384105</v>
+        <v>3.429161505237708</v>
       </c>
       <c r="E21">
-        <v>64.5837274868462</v>
+        <v>31.06286368148107</v>
       </c>
       <c r="F21">
-        <v>49.46316778748869</v>
+        <v>21.02034812966933</v>
       </c>
       <c r="G21">
-        <v>78.40552805703327</v>
+        <v>27.67752317523498</v>
       </c>
       <c r="H21">
-        <v>19.29081315210995</v>
+        <v>10.97923429898125</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>103.5221077864917</v>
+        <v>52.23241002358596</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.581374179358496</v>
+        <v>8.233480929621594</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.948707287946928</v>
+        <v>3.501622925059163</v>
       </c>
       <c r="E22">
-        <v>70.35736070534273</v>
+        <v>32.17612392017007</v>
       </c>
       <c r="F22">
-        <v>54.72404670596327</v>
+        <v>21.36710149353213</v>
       </c>
       <c r="G22">
-        <v>87.22381578761632</v>
+        <v>28.51377466185838</v>
       </c>
       <c r="H22">
-        <v>21.48543040585111</v>
+        <v>10.96828808908043</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>111.3989142483435</v>
+        <v>53.97504616500105</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.364804919783646</v>
+        <v>8.193916554058763</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.42153930282594</v>
+        <v>3.463100482961884</v>
       </c>
       <c r="E23">
-        <v>67.03726777650517</v>
+        <v>31.58656719909757</v>
       </c>
       <c r="F23">
-        <v>51.72342485849867</v>
+        <v>21.18035336612539</v>
       </c>
       <c r="G23">
-        <v>82.18382535721581</v>
+        <v>28.06658779514836</v>
       </c>
       <c r="H23">
-        <v>20.23081930462903</v>
+        <v>10.973158843452</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>106.9267874893293</v>
+        <v>53.0520226890192</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.571524238976144</v>
+        <v>8.045382496291325</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.023248796646709</v>
+        <v>3.313841890391434</v>
       </c>
       <c r="E24">
-        <v>57.83583682629777</v>
+        <v>29.2520667939351</v>
       </c>
       <c r="F24">
-        <v>43.15582781616786</v>
+        <v>20.5107367457955</v>
       </c>
       <c r="G24">
-        <v>67.93656939372255</v>
+        <v>26.39448117618743</v>
       </c>
       <c r="H24">
-        <v>16.68924982798818</v>
+        <v>11.01260556089415</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>93.78603147956238</v>
+        <v>49.40105770544187</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.808962369783676</v>
+        <v>7.888763509368227</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.934496111452583</v>
+        <v>3.14547768513315</v>
       </c>
       <c r="E25">
-        <v>49.96982721394176</v>
+        <v>26.70488086617026</v>
       </c>
       <c r="F25">
-        <v>35.84082535570883</v>
+        <v>19.87333447031228</v>
       </c>
       <c r="G25">
-        <v>55.92090712319796</v>
+        <v>24.65424196571466</v>
       </c>
       <c r="H25">
-        <v>13.71121109046692</v>
+        <v>11.09776374992619</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>81.89149341367775</v>
+        <v>45.13074669344798</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_124/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_124/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.777315673816282</v>
+        <v>7.277865080618515</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.014987419875711</v>
+        <v>4.25803718394104</v>
       </c>
       <c r="E2">
-        <v>24.79174213415143</v>
+        <v>44.59383886850626</v>
       </c>
       <c r="F2">
-        <v>19.4802831355137</v>
+        <v>30.98428427533648</v>
       </c>
       <c r="G2">
-        <v>23.44602904748765</v>
+        <v>48.01435241924077</v>
       </c>
       <c r="H2">
-        <v>11.19472305127429</v>
+        <v>11.75897338681708</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>41.70069791426189</v>
+        <v>73.51025891976572</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.704587222163366</v>
+        <v>6.908706163363842</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.922400963657579</v>
+        <v>3.835522459213367</v>
       </c>
       <c r="E3">
-        <v>23.41756359132795</v>
+        <v>40.97820898501438</v>
       </c>
       <c r="F3">
-        <v>19.26235927293049</v>
+        <v>27.81995888076563</v>
       </c>
       <c r="G3">
-        <v>22.68261639027289</v>
+        <v>42.89300162882851</v>
       </c>
       <c r="H3">
-        <v>11.28055079420221</v>
+        <v>10.49935725017258</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>39.19863302170486</v>
+        <v>67.78381286528786</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.66143945997142</v>
+        <v>6.677514934866482</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.86348191332191</v>
+        <v>3.58617409448398</v>
       </c>
       <c r="E4">
-        <v>22.53752749670013</v>
+        <v>38.73107777495061</v>
       </c>
       <c r="F4">
-        <v>19.15247696827177</v>
+        <v>25.90343316051552</v>
       </c>
       <c r="G4">
-        <v>22.2443913885128</v>
+        <v>39.80295593189618</v>
       </c>
       <c r="H4">
-        <v>11.34274728644962</v>
+        <v>9.741982598501689</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>37.57545245196752</v>
+        <v>64.19380673093663</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.644254268980068</v>
+        <v>6.582216197197114</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.838948601769874</v>
+        <v>3.486282473968763</v>
       </c>
       <c r="E5">
-        <v>22.17016049896304</v>
+        <v>37.80425885404971</v>
       </c>
       <c r="F5">
-        <v>19.11368910538449</v>
+        <v>25.12533829704823</v>
       </c>
       <c r="G5">
-        <v>22.07393207464346</v>
+        <v>38.55100371553529</v>
       </c>
       <c r="H5">
-        <v>11.37041752415979</v>
+        <v>9.435833763952489</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>36.8922928694506</v>
+        <v>62.70679759384873</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.641425244824957</v>
+        <v>6.56632851346636</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.834843187600237</v>
+        <v>3.469779485671427</v>
       </c>
       <c r="E6">
-        <v>22.10864393996882</v>
+        <v>37.64958745003439</v>
       </c>
       <c r="F6">
-        <v>19.1076088383987</v>
+        <v>24.996223535902</v>
       </c>
       <c r="G6">
-        <v>22.04613008023763</v>
+        <v>38.34340442585632</v>
       </c>
       <c r="H6">
-        <v>11.37515068608002</v>
+        <v>9.385112234476271</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>36.77754963350671</v>
+        <v>62.4582940100161</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.661206059281472</v>
+        <v>6.676234006424512</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.863153170619747</v>
+        <v>3.584820882229563</v>
       </c>
       <c r="E7">
-        <v>22.53260790701708</v>
+        <v>38.71862811179935</v>
       </c>
       <c r="F7">
-        <v>19.15192966475593</v>
+        <v>25.89293185553451</v>
       </c>
       <c r="G7">
-        <v>22.24205907525466</v>
+        <v>39.78604936053614</v>
       </c>
       <c r="H7">
-        <v>11.34311112866277</v>
+        <v>9.73784538137709</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>37.56632674596789</v>
+        <v>64.17385601270617</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.751937400829574</v>
+        <v>7.151537219775516</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.983491615962308</v>
+        <v>4.109697281388066</v>
       </c>
       <c r="E8">
-        <v>24.32566026181651</v>
+        <v>43.34981022405228</v>
       </c>
       <c r="F8">
-        <v>19.40017168395404</v>
+        <v>29.885108198379</v>
       </c>
       <c r="G8">
-        <v>23.17675304581721</v>
+        <v>46.23265212451058</v>
       </c>
       <c r="H8">
-        <v>11.22230695496894</v>
+        <v>11.32022678758241</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>40.85609745338637</v>
+        <v>71.54734640395642</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.94097164859457</v>
+        <v>8.047903824364679</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.203193058163686</v>
+        <v>5.273571117392278</v>
       </c>
       <c r="E9">
-        <v>27.54090789973296</v>
+        <v>52.50905416643337</v>
       </c>
       <c r="F9">
-        <v>20.07637466502008</v>
+        <v>38.18294356273588</v>
       </c>
       <c r="G9">
-        <v>25.23037646582564</v>
+        <v>59.75397891948543</v>
       </c>
       <c r="H9">
-        <v>11.06359295284519</v>
+        <v>14.66003670848604</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>46.61364606264339</v>
+        <v>85.78471432203894</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.085451329462391</v>
+        <v>8.786313923980963</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.354924191119205</v>
+        <v>6.348213704569197</v>
       </c>
       <c r="E10">
-        <v>29.90284592238014</v>
+        <v>60.04481683715064</v>
       </c>
       <c r="F10">
-        <v>20.68599608206198</v>
+        <v>45.22722873833339</v>
       </c>
       <c r="G10">
-        <v>26.84416751075701</v>
+        <v>71.36313110004562</v>
       </c>
       <c r="H10">
-        <v>10.99843756063836</v>
+        <v>17.54020051279918</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>50.41810888943049</v>
+        <v>97.02779149762408</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.152137514425347</v>
+        <v>9.141185488394983</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.421909218974017</v>
+        <v>6.963052202781807</v>
       </c>
       <c r="E11">
-        <v>30.95042488299778</v>
+        <v>64.09787246043942</v>
       </c>
       <c r="F11">
-        <v>20.98672400805461</v>
+        <v>49.01243023588901</v>
       </c>
       <c r="G11">
-        <v>27.5950144144461</v>
+        <v>77.65382606521241</v>
       </c>
       <c r="H11">
-        <v>10.98075104685631</v>
+        <v>19.10385717883744</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>52.0564801407947</v>
+        <v>102.8386173160684</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.177506464247273</v>
+        <v>9.276615097242287</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.446986979336879</v>
+        <v>7.232350991528198</v>
       </c>
       <c r="E12">
-        <v>31.33843134555673</v>
+        <v>65.83141713661591</v>
       </c>
       <c r="F12">
-        <v>21.10384663933233</v>
+        <v>50.61622276208197</v>
       </c>
       <c r="G12">
-        <v>27.88127336141023</v>
+        <v>80.3311343689729</v>
       </c>
       <c r="H12">
-        <v>10.97583377974828</v>
+        <v>19.76982504098417</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>52.66364430201877</v>
+        <v>105.2634838429065</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.172037981163433</v>
+        <v>9.247348612300172</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.441598759264276</v>
+        <v>7.172128141847494</v>
       </c>
       <c r="E13">
-        <v>31.25525269206108</v>
+        <v>65.44559457819835</v>
       </c>
       <c r="F13">
-        <v>21.07848004805681</v>
+        <v>50.26040445652094</v>
       </c>
       <c r="G13">
-        <v>27.81954374781593</v>
+        <v>79.73650723100766</v>
       </c>
       <c r="H13">
-        <v>10.97681267606175</v>
+        <v>19.62189213883125</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>52.5334694828127</v>
+        <v>104.7271654165888</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.154222426954231</v>
+        <v>9.152288807863284</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.423978123067148</v>
+        <v>6.984276504996127</v>
       </c>
       <c r="E14">
-        <v>30.98252020248475</v>
+        <v>64.23530452206715</v>
       </c>
       <c r="F14">
-        <v>20.99629551132408</v>
+        <v>49.14001784227349</v>
       </c>
       <c r="G14">
-        <v>27.61852903615821</v>
+        <v>77.86654779509247</v>
       </c>
       <c r="H14">
-        <v>10.98031047977657</v>
+        <v>19.15676109681857</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>52.10669729938974</v>
+        <v>103.0322539654814</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.143324386557877</v>
+        <v>9.094283018433211</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.413147624285463</v>
+        <v>6.874923553357239</v>
       </c>
       <c r="E15">
-        <v>30.81433390120043</v>
+        <v>63.5256276936253</v>
       </c>
       <c r="F15">
-        <v>20.94637359736232</v>
+        <v>48.48047285290571</v>
       </c>
       <c r="G15">
-        <v>27.49563949602645</v>
+        <v>76.76740519493067</v>
       </c>
       <c r="H15">
-        <v>10.98268660098242</v>
+        <v>18.88342286849192</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>51.84356219988351</v>
+        <v>102.0298356349106</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.081110703749912</v>
+        <v>8.763139781736157</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.350505972393562</v>
+        <v>6.311682347108563</v>
       </c>
       <c r="E16">
-        <v>29.83316505286407</v>
+        <v>59.79905381575443</v>
       </c>
       <c r="F16">
-        <v>20.66680373636874</v>
+        <v>44.99684281811518</v>
       </c>
       <c r="G16">
-        <v>26.79539300850409</v>
+        <v>70.98147682997545</v>
       </c>
       <c r="H16">
-        <v>10.99983924927692</v>
+        <v>17.44539109674321</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>50.30918157756575</v>
+        <v>96.66957742481247</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.043175294606057</v>
+        <v>8.559625763440344</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.311558791719621</v>
+        <v>6.006080865293843</v>
       </c>
       <c r="E17">
-        <v>29.21571087519437</v>
+        <v>57.71763669719954</v>
       </c>
       <c r="F17">
-        <v>20.5012102529973</v>
+        <v>43.04500691805075</v>
       </c>
       <c r="G17">
-        <v>26.36974903867352</v>
+        <v>67.75355415864693</v>
       </c>
       <c r="H17">
-        <v>11.01346778993654</v>
+        <v>16.64381748604288</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>49.34425807527551</v>
+        <v>93.61121117980524</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.021447679120367</v>
+        <v>8.44203384096101</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.288965226064426</v>
+        <v>5.840624763904639</v>
       </c>
       <c r="E18">
-        <v>28.85483900868545</v>
+        <v>56.57014206178548</v>
       </c>
       <c r="F18">
-        <v>20.40817708398349</v>
+        <v>41.96973544720682</v>
       </c>
       <c r="G18">
-        <v>26.12653063886269</v>
+        <v>65.97939402701918</v>
       </c>
       <c r="H18">
-        <v>11.02242811239303</v>
+        <v>16.20349329095939</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>48.78056955745669</v>
+        <v>91.9072283128622</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.014107523198639</v>
+        <v>8.402100311758721</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.281282278316808</v>
+        <v>5.786091898274417</v>
       </c>
       <c r="E19">
-        <v>28.73166846064191</v>
+        <v>56.18850629657176</v>
       </c>
       <c r="F19">
-        <v>20.37706099311504</v>
+        <v>41.61244503379001</v>
       </c>
       <c r="G19">
-        <v>26.04447105418467</v>
+        <v>65.39051460092851</v>
       </c>
       <c r="H19">
-        <v>11.02565263721224</v>
+        <v>16.0573821949159</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>48.58822144923828</v>
+        <v>91.33784054773939</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.04720423898768</v>
+        <v>8.581338763344222</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.315724639745134</v>
+        <v>6.037471387865136</v>
       </c>
       <c r="E20">
-        <v>29.28203241347554</v>
+        <v>57.93363891119263</v>
       </c>
       <c r="F20">
-        <v>20.51860988256229</v>
+        <v>43.24752987973162</v>
       </c>
       <c r="G20">
-        <v>26.41489745084169</v>
+        <v>68.08803420715101</v>
       </c>
       <c r="H20">
-        <v>11.01190047963011</v>
+        <v>16.72685139218218</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>49.44787512055382</v>
+        <v>93.9305815710055</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.159452304100355</v>
+        <v>9.180157327826031</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.429161505237708</v>
+        <v>7.03818500838431</v>
       </c>
       <c r="E21">
-        <v>31.06286368148107</v>
+        <v>64.58372748684734</v>
       </c>
       <c r="F21">
-        <v>21.02034812966933</v>
+        <v>49.46316778748901</v>
       </c>
       <c r="G21">
-        <v>27.67752317523498</v>
+        <v>78.40552805703389</v>
       </c>
       <c r="H21">
-        <v>10.97923429898125</v>
+        <v>19.29081315211015</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>52.23241002358596</v>
+        <v>103.522107786493</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.233480929621594</v>
+        <v>9.581374179358384</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.501622925059163</v>
+        <v>7.948707287947</v>
       </c>
       <c r="E22">
-        <v>32.17612392017007</v>
+        <v>70.35736070534423</v>
       </c>
       <c r="F22">
-        <v>21.36710149353213</v>
+        <v>54.72404670596394</v>
       </c>
       <c r="G22">
-        <v>28.51377466185838</v>
+        <v>87.2238157876176</v>
       </c>
       <c r="H22">
-        <v>10.96828808908043</v>
+        <v>21.48543040585135</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>53.97504616500105</v>
+        <v>111.3989142483451</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.193916554058763</v>
+        <v>9.364804919783683</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.463100482961884</v>
+        <v>7.421539302825806</v>
       </c>
       <c r="E23">
-        <v>31.58656719909757</v>
+        <v>67.03726777650473</v>
       </c>
       <c r="F23">
-        <v>21.18035336612539</v>
+        <v>51.72342485849853</v>
       </c>
       <c r="G23">
-        <v>28.06658779514836</v>
+        <v>82.1838253572156</v>
       </c>
       <c r="H23">
-        <v>10.973158843452</v>
+        <v>20.23081930462894</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>53.0520226890192</v>
+        <v>106.9267874893288</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.045382496291325</v>
+        <v>8.571524238976005</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.313841890391434</v>
+        <v>6.023248796646649</v>
       </c>
       <c r="E24">
-        <v>29.2520667939351</v>
+        <v>57.83583682629821</v>
       </c>
       <c r="F24">
-        <v>20.5107367457955</v>
+        <v>43.15582781616807</v>
       </c>
       <c r="G24">
-        <v>26.39448117618743</v>
+        <v>67.93656939372293</v>
       </c>
       <c r="H24">
-        <v>11.01260556089415</v>
+        <v>16.68924982798826</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>49.40105770544187</v>
+        <v>93.78603147956277</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.888763509368227</v>
+        <v>7.808962369783634</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.14547768513315</v>
+        <v>4.934496111452385</v>
       </c>
       <c r="E25">
-        <v>26.70488086617026</v>
+        <v>49.96982721394173</v>
       </c>
       <c r="F25">
-        <v>19.87333447031228</v>
+        <v>35.84082535570909</v>
       </c>
       <c r="G25">
-        <v>24.65424196571466</v>
+        <v>55.92090712319846</v>
       </c>
       <c r="H25">
-        <v>11.09776374992619</v>
+        <v>13.71121109046704</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>45.13074669344798</v>
+        <v>81.89149341367774</v>
       </c>
       <c r="N25">
         <v>0</v>
